--- a/biology/Zoologie/Gastrophryne_mazatlanensis/Gastrophryne_mazatlanensis.xlsx
+++ b/biology/Zoologie/Gastrophryne_mazatlanensis/Gastrophryne_mazatlanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gastrophryne mazatlanensis est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gastrophryne mazatlanensis est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis dans le centre-Sud de l'Arizona et dans le sud-ouest du Nouveau-Mexique et au Mexique au Sonora, au Sinaloa et au Nayarit, le long de la plaine côtière[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis dans le centre-Sud de l'Arizona et dans le sud-ouest du Nouveau-Mexique et au Mexique au Sonora, au Sinaloa et au Nayarit, le long de la plaine côtière.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 22,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 22,2 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de mazatlan et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Mazatlán.
 </t>
@@ -604,9 +622,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été relevée de sa synonymie avec Gastrophryne olivacea par Streicher, Cox, Campbell, Smith et de Sá en 2012[3] où elle avait été placée par Hecht et Matalas en 1946[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été relevée de sa synonymie avec Gastrophryne olivacea par Streicher, Cox, Campbell, Smith et de Sá en 2012 où elle avait été placée par Hecht et Matalas en 1946.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Taylor, 1943 : Herpetological Novelties from Mexico. The University of Kansas science bulletin, vol. 29, no 8, p. 343-357 (texte intégral).</t>
         </is>
